--- a/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_10/TRY_AGAIN_1_0_TEST_GAP_10_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_10/TRY_AGAIN_1_0_TEST_GAP_10_Test_Result.xlsx
@@ -445,16 +445,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
     </row>
   </sheetData>

--- a/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_10/TRY_AGAIN_1_0_TEST_GAP_10_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_10/TRY_AGAIN_1_0_TEST_GAP_10_Test_Result.xlsx
@@ -448,13 +448,13 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0025</v>
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>
